--- a/training_records/video_1_arousal_training_history.xlsx
+++ b/training_records/video_1_arousal_training_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,386 @@
         <v>0.05</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7320640068033049</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5811976343026122</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7335345324621219</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5797271075245634</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7320717063779723</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.581189933464761</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7335345324621219</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5797271075245634</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7320563058626364</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5812053351404632</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7335345324621219</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5797271075245634</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7320486046575807</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5812130359783144</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7335345324621219</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5797271075245634</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7320640055327771</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5811976343026122</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7335345324621219</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5797271075245634</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7320640055621535</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5811976343026122</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7335345324621219</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5797271075245634</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7320871087513633</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5811745317890586</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7335345324621219</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5797271075245634</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7320640061203043</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5811976343026122</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7335345324621219</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5797271075245634</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7320871074661472</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5811745317890586</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7335345324621219</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5797271075245634</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7320794079722649</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5811822326269098</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7335345324621219</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5797271075245634</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7320717073473924</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.581189933464761</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7335345324621219</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5797271075245634</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.732048604275688</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5812130359783144</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7335345324621219</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5797271075245634</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7320563050547864</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5812053351404632</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7335345324621219</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5797271075245634</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0125</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7320640070530039</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5811976343026122</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7335345324621219</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5797271075245634</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7320794084422867</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5811822326269098</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7335345324621219</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5797271075245634</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0125</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7320717062531227</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.581189933464761</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7335345324621219</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5797271075245634</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0125</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7320717072666073</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.581189933464761</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7335345324621219</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5797271075245634</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0125</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7320717076778764</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.581189933464761</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7335345324621219</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5797271075245634</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0125</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7320717076191237</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.581189933464761</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7335345324621219</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5797271075245634</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.00625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
